--- a/biology/Histoire de la zoologie et de la botanique/Cabinet_de_curiosités/Cabinet_de_curiosités.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Cabinet_de_curiosités/Cabinet_de_curiosités.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cabinet_de_curiosit%C3%A9s</t>
+          <t>Cabinet_de_curiosités</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cabinets de curiosités[1] sont des pièces, ou parfois des meubles, où sont entreposées et exposées des « choses rares, nouvelles, singulières », pour reprendre la définition du Littré : on y trouve un mélange hétéroclite comprenant :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cabinets de curiosités sont des pièces, ou parfois des meubles, où sont entreposées et exposées des « choses rares, nouvelles, singulières », pour reprendre la définition du Littré : on y trouve un mélange hétéroclite comprenant :
 naturalia, objets d'histoire naturelle des trois règnes :
 minéral (pierres précieuses, fossiles, pierres étranges comme les héliotropes, les fulgurites ou pierres de foudre (découvertes pour la première fois au XVIIe siècle)[a] et bien d’autres objets qui intéressaient depuis longtemps les alchimistes)
 animal (animaux empaillés, insectes séchés, coquillages, squelettes, carapaces, cornes, dents, défenses)
@@ -492,8 +504,8 @@
 modifiés : objets d’art, tels les peintures sur pierre, pièces en pierres fines ou précieuses (camées, intailles), en cristal de roche, ivoire, ambre, nautiles montés en hanap, œufs d’autruche, etc.
 scientifica (instruments scientifiques, automates, zograscopes, etc.)
 exotica (plantes, animaux exotiques, objets ethnographiques)
-L’une de leurs fonctions était de faire découvrir le monde, y compris lointain (dans le temps et l’espace), de mieux le comprendre, ou de confirmer des croyances de l'époque (on pouvait y voir des restes d'animaux mythiques, des cornes de licorne, l’Agneau tartare, mi-animal, mi-végétal, ou des racines de Baara[2]).
-L'édition de catalogues qui en faisaient l'inventaire souvent illustré, permettait d'en diffuser le contenu auprès des savants européens[3].
+L’une de leurs fonctions était de faire découvrir le monde, y compris lointain (dans le temps et l’espace), de mieux le comprendre, ou de confirmer des croyances de l'époque (on pouvait y voir des restes d'animaux mythiques, des cornes de licorne, l’Agneau tartare, mi-animal, mi-végétal, ou des racines de Baara).
+L'édition de catalogues qui en faisaient l'inventaire souvent illustré, permettait d'en diffuser le contenu auprès des savants européens.
 </t>
         </is>
       </c>
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cabinet_de_curiosit%C3%A9s</t>
+          <t>Cabinet_de_curiosités</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,24 +536,64 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naissance
-Les cabinets de curiosités marquèrent une étape vers une appréhension plus scientifique du monde. Apparus à la Renaissance en Europe (studiolo en italien, Wunderkammer en allemand), leurs collections, souvent ouvertes à la visite, formèrent par la suite le noyau des musées, muséums et jardins botaniques qui les remplacèrent peu à peu[4]. Ainsi, l’Ashmolean Museum d’Oxford ouvrit en 1683, présentant les collections des cabinets des Tradescant, père et fils, et celles d’Elias Ashmole. Celui-ci établit clairement le lien entre les collections de spécimens et la connaissance scientifique : « Parce que la connaissance de la Nature est très nécessaire à la vie humaine, à la santé et aux conditions qui la permettent, et parce que cette connaissance ne se peut si bien trouver et ne peut être si utilement atteinte sans connaître et approfondir l’histoire naturelle ; et qu’à cette fin il est indispensable d’examiner des spécimens, en particulier ceux qui sont d’une constitution extraordinaire, ou utiles en médecine, ou qui peuvent être mis au service de l’industrie ou du commerce : moi, Elias Ashmole, par passion pour cette branche du Savoir pour laquelle j’ai éprouvé le plus vif plaisir, ce qui reste encore vrai aujourd’hui ; cause pour laquelle j’ai aussi amassé une grande variété de corps composés et de corps simples, et en ai fait don à l’université d’Oxford […] » (Statutes Orders &amp; Rules, for the Ashmolean Museum, in the University of Oxford)[b]
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cabinets de curiosités marquèrent une étape vers une appréhension plus scientifique du monde. Apparus à la Renaissance en Europe (studiolo en italien, Wunderkammer en allemand), leurs collections, souvent ouvertes à la visite, formèrent par la suite le noyau des musées, muséums et jardins botaniques qui les remplacèrent peu à peu. Ainsi, l’Ashmolean Museum d’Oxford ouvrit en 1683, présentant les collections des cabinets des Tradescant, père et fils, et celles d’Elias Ashmole. Celui-ci établit clairement le lien entre les collections de spécimens et la connaissance scientifique : « Parce que la connaissance de la Nature est très nécessaire à la vie humaine, à la santé et aux conditions qui la permettent, et parce que cette connaissance ne se peut si bien trouver et ne peut être si utilement atteinte sans connaître et approfondir l’histoire naturelle ; et qu’à cette fin il est indispensable d’examiner des spécimens, en particulier ceux qui sont d’une constitution extraordinaire, ou utiles en médecine, ou qui peuvent être mis au service de l’industrie ou du commerce : moi, Elias Ashmole, par passion pour cette branche du Savoir pour laquelle j’ai éprouvé le plus vif plaisir, ce qui reste encore vrai aujourd’hui ; cause pour laquelle j’ai aussi amassé une grande variété de corps composés et de corps simples, et en ai fait don à l’université d’Oxford […] » (Statutes Orders &amp; Rules, for the Ashmolean Museum, in the University of Oxford)[b]
 De même, à Londres, la Royal Society (fondée en 1660) avait commencé à se constituer une collection en achetant le cabinet de « raretés naturelles » de Robert Hubert. C’est en 1669 qu’elle prit la décision de compléter ses collections de manière plus systématique en commençant à réunir un herbier exhaustif des îles britanniques. Au début du XVIIIe siècle, le prince électeur de Saxe Frédéric Auguste I, dit Auguste le Fort, transforma les salles de son trésor, le Grünes Gewölbe, en musée public. Enfin, alors que le jardin botanique de Pise existait déjà depuis 1544, il fut imité à la fin du siècle, puis au début du suivant, au jardin botanique de l'université de Strasbourg, au jardin des plantes de Montpellier, puis au jardin royal des plantes médicinales de Paris.
-Cabinets de curiosités célèbres
-Ces cabinets pouvaient être prestigieux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cabinets de curiosités célèbres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ces cabinets pouvaient être prestigieux.
 C'était le cas des studioli italiens des d’Este (le Studiolo de Belfiore date de 1447), ceux des Montefeltro vers la fin du siècle, des Médicis au siècle suivant, sans oublier ceux des familles Gonzague, Farnese, ou Sforza.
-Le Cabinet d’art et de merveilles ("Kunst- und Wunderkammer") de Archiduc Ferdinand II. (Tyrol) (1529-1595) dans le château d’Ambras, Innsbruck en Autriche. Un des plus riches et célèbres et la seule Kunstkammer de la Renaissance qui s’y trouve toujours au bâtiment original[5],[6]. Le château d’Ambras est par conséquent le plus ancien musée du monde.
+Le Cabinet d’art et de merveilles ("Kunst- und Wunderkammer") de Archiduc Ferdinand II. (Tyrol) (1529-1595) dans le château d’Ambras, Innsbruck en Autriche. Un des plus riches et célèbres et la seule Kunstkammer de la Renaissance qui s’y trouve toujours au bâtiment original,. Le château d’Ambras est par conséquent le plus ancien musée du monde.
 Le cabinet de Rodolphe II de Habsbourg au château de Prague fut l’autre des plus riches et célèbres, à voir aujourd'hui dans le Kunstkammer du Kunsthistorisches Museum Wien, Autriche.
 Le Cabinet de merveilles Grünes Gewölbe (« la Voûte verte ») d’Auguste le Fort, au Château de la Résidence de Dresde, Allemagne, mis en place entre 1723 et 1729., qui remonte à l'origine au Maurice de Saxe (1521-1553).
-Frédéric III (1452-1486) et son fils Maximilien Ier (1459-1519) avaient le leur[7]. En effet des Schatzkammern (trésors médiévaux) et pas encore de Kunstkammern (Cabinets de curiosités de la Renaissance et du baroque).
+Frédéric III (1452-1486) et son fils Maximilien Ier (1459-1519) avaient le leur. En effet des Schatzkammern (trésors médiévaux) et pas encore de Kunstkammern (Cabinets de curiosités de la Renaissance et du baroque).
 En France, Charles V (1337-1380) fut collectionneur, le duc Jean Ier de Berry (1340-1416) fut amateur d'œuvres d'art et bibliophile.
 François Ier (1494-1547) eut un cabinet à Fontainebleau. Il fit d’André Thevet son cosmographe. Celui-ci, en rentrant du Brésil, écrivit Les Singularités de la France Antarctique (1557) comportant une description de différentes plantes et plus de quarante gravures (flore, faune, rituels des Tupinamba). Henri IV (1553-1610) eut un cabinet des singularités au palais des Tuileries, et un autre à Fontainebleau. Jean Mocquet lui rapporta notamment de ses voyages de nombreuses plantes exotiques qui, si elles avaient résisté au voyage, étaient replantées dans le jardin du Louvre. Il introduisit en France le goût de la botanique exotique.
-De Gaston d’Orléans (1608-1660), frère de Louis XIII, Bonnaffé nota que « Relégué à Blois, le Duc … forma dans ses jardins un musée de plantes vivaces indigènes et exotiques. Le tout fut légué à Louis XIV, et réparti plus tard entre le Louvre et le Jardin du roi[8] ». On connaît précisément les plantes qu’il cultivait et l’évolution de son jardin grâce aux catalogues[9] rédigés par ses botanistes Abel Brunier, puis Robert Morison. En outre, Gaston d’Orléans fit venir des peintres de fleurs à Blois. Daniel Rabel pourrait être le premier d’entre eux, en 1631 et 1632. Le plus célèbre, qui fut ensuite peintre en miniature de Louis XIV, est Nicolas Robert. Rabel et Robert ont notamment laissé des peintures de tulipes, en pleine période de tulipomanie.
+De Gaston d’Orléans (1608-1660), frère de Louis XIII, Bonnaffé nota que « Relégué à Blois, le Duc … forma dans ses jardins un musée de plantes vivaces indigènes et exotiques. Le tout fut légué à Louis XIV, et réparti plus tard entre le Louvre et le Jardin du roi ». On connaît précisément les plantes qu’il cultivait et l’évolution de son jardin grâce aux catalogues rédigés par ses botanistes Abel Brunier, puis Robert Morison. En outre, Gaston d’Orléans fit venir des peintres de fleurs à Blois. Daniel Rabel pourrait être le premier d’entre eux, en 1631 et 1632. Le plus célèbre, qui fut ensuite peintre en miniature de Louis XIV, est Nicolas Robert. Rabel et Robert ont notamment laissé des peintures de tulipes, en pleine période de tulipomanie.
 Les intailles, camées, médailles (et sculptures antiques ?) du cabinet de Gaston d’Orléans sont aujourd’hui au département des Monnaies, Médailles et Antiques de la Bibliothèque nationale de France) ; les livres à la Bibliothèque nationale ; et les vélins de Nicolas Robert dans la collection des vélins du roi au Muséum national d'histoire naturelle.
-On possède une description précise du contenu du cabinet de Louis-Pierre-Maximilien de Béthune, duc de Sully (1685-1761)[10].
+On possède une description précise du contenu du cabinet de Louis-Pierre-Maximilien de Béthune, duc de Sully (1685-1761).
 La passion des plantes exotiques se prolongea jusqu’au début du XIXe siècle avec Joséphine de Beauharnais (1763-1814), qui fit de la Petite Malmaison un jardin d'acclimatation comprenant une grande serre chaude. Elle apporta également son soutien actif aux peintres de plantes et d’animaux. Pierre-Joseph Redouté fut son peintre officiel, après avoir été celui de Marie-Antoinette.
 Il n’y eut pas de collectionneurs de rang aussi éminent au Royaume-Uni. Néanmoins, le baronnet Hans Sloane (1660-1753), naturaliste, racheta de nombreux cabinets privés et constitua une riche collection de plantes qui fut mise à la disposition de John Ray avant d’être offerte à la nation afin d’être présentée au public (British Museum, 1759, puis Musée d'histoire naturelle de Londres, 1881).
-Edmond Bonnaffé note que « En effet, à côté des grandes seigneurs de Paris et des villes principales, adorateurs exclusifs du grand art, se formait une armée d'hommes modestes et clairvoyants qui recueillaient, petit à petit, les miettes de la curiosité. C'étaient des médecins, des chanoines, des apothicaires…[11] » Sans abandonner tout projet d’éblouir le public par le faste des œuvres d’art présentées ou de l’étonner par la présentation d’objets insolites, voire monstrueux, les propriétaires aux moyens plus modestes constituèrent bien souvent des cabinets d’histoire naturelle qui eurent souvent une influence scientifique, en partie grâce à la publication de leurs catalogues illustrés.
+Edmond Bonnaffé note que « En effet, à côté des grandes seigneurs de Paris et des villes principales, adorateurs exclusifs du grand art, se formait une armée d'hommes modestes et clairvoyants qui recueillaient, petit à petit, les miettes de la curiosité. C'étaient des médecins, des chanoines, des apothicaires… » Sans abandonner tout projet d’éblouir le public par le faste des œuvres d’art présentées ou de l’étonner par la présentation d’objets insolites, voire monstrueux, les propriétaires aux moyens plus modestes constituèrent bien souvent des cabinets d’histoire naturelle qui eurent souvent une influence scientifique, en partie grâce à la publication de leurs catalogues illustrés.
 Parmi les cabinets contenant des « miettes de curiosités », on peut mentionner :
 Le fils d’André Tiraqueau, Michel, possédait à Fontenay-le-Comte un cabinet décrit en vers[c], en 1566, par son neveu, André de Rivaudeau, le rival de Ronsard :
 Mais un autre dira le merveilleux ouvrage
@@ -550,7 +602,7 @@
 Les faitz de la Nature imiter par son art.
 Ou au plus pres du vif il te peint cinq cens plantes,
 Que dans ton Bel-esbat nees tu luy presentes.
-Michel Tiraqueau possédait donc un herbier peint de 500 plantes[12].
+Michel Tiraqueau possédait donc un herbier peint de 500 plantes.
 Bernard Palissy posséda un cabinet qu’il mentionne dans sa dédicace au « Sire Anthoine de Ponts » au début de Discours admirables de la nature des eaux et fontaines … (1580)[d] : il l’avait constitué afin de réunir des preuves des faits qu’il défendait au sujet notamment des fossiles, qui étaient, selon lui, des débris d’animaux. On peut noter aussi qu’il oppose son approche en contact direct avec la réalité étudiée à celle des « philosophes » reconnus qui trouvaient leur science dans des livres écrits en latin.
 Paul Contant. (1562-1629) possédait un jardin botanique avec un cabinet d’histoire naturelle. En 1609, il publia un poème intitulé Le Jardin, et Cabinet poétique. Il y évoque les plantes qu’il cultive, les plus prisées par les collectionneurs, et chante leurs avantages. En outre, il chante plusieurs animaux qu'il collectionne aussi. Le poème est accompagné de gravures et d’un index. Contant possède en outre de riches herbiers de plantes exotiques.
 Le médecin suisse Félix Platter (1536-1614) avait un cabinet d'histoire naturelle, un herbier (en partie conservé à l'Université de Berne) et une collection d'instruments de musique. C'est probablement par l'intermédiaire de Guillaume Rondelet (1507-66) dont il suivit les cours à Montpellier qu'il apprit la technique de séchage des plantes mise au point en Italie par le médecin et botaniste Luca Ghini (1490-1556).
@@ -558,62 +610,241 @@
 Nicolas-Claude Fabri de Peiresc (1580-1637) possédait un cabinet et un jardin d’acclimatation à Aix-en-Provence. On en possède encore deux inventaires, et plusieurs dessins d’objets d’art.
 Le Cabinet du roi (classé ici parce qu’il ne comprenait pas d’œuvres d’art fastueuses, conservées ailleurs) fut créé en 1633 au Jardin du roi, qui devint ensuite le Jardin des plantes de Paris. Le cabinet fut agrandi et enrichi par Buffon, qui dirigea la publication de l’Histoire Naturelle, générale et particulière, avec la description du Cabinet du Roi. Les collections du cabinet sont à la base des collections actuelles du Muséum national d'histoire naturelle et du musée de l'Homme, à Paris.
 Athanasius Kircher (1602-1680) constitua le musée Kircher créé en 1651 après le don d’un cabinet de curiosités. Le musée a disparu, mais il reste deux catalogues illustrés.
-Le père Claude Du Molinet (1620-1687) fut responsable de la bibliothèque de l’abbaye Sainte-Geneviève de Paris à partir de 1662, dans laquelle il créa un cabinet. Collectionneur de médailles, il constitua un cabinet divisé en deux parties: l'Histoire ancienne, regroupant les objets des civilisations grecques, romaines ou égyptiennes, et l'Histoire naturelle, où il rassembla les vestiges des animaux les plus étranges[13].
+Le père Claude Du Molinet (1620-1687) fut responsable de la bibliothèque de l’abbaye Sainte-Geneviève de Paris à partir de 1662, dans laquelle il créa un cabinet. Collectionneur de médailles, il constitua un cabinet divisé en deux parties: l'Histoire ancienne, regroupant les objets des civilisations grecques, romaines ou égyptiennes, et l'Histoire naturelle, où il rassembla les vestiges des animaux les plus étranges.
 Georg Everhard Rumphius (1627-1702) eut un cabinet dont le catalogue illustré (D'Amboinsche Rariteitkamer) parut en 1705.
 Frederik Ruysch (1638-1731), constitua un cabinet de curiosités anatomiques acquis par Pierre le Grand et qui est, en partie, à l'origine du Musée d'ethnographie et d'anthropologie de l'Académie des sciences de Russie, avec les collections d’Albertus Seba (1665-1736), qui publia à partir de 1734 un Thesaurus comportant plusieurs centaines de gravures animalières (à voir à la Bibliothèque royale de La Hague).
 Louis-Léon Pajot d’Ons-en-Bray (1678-1754) possédait un célèbre cabinet contenant des objets relatifs à la physique et à la mécanique.
 René-Antoine Ferchault de Réaumur (1683-1757) assembla le plus grand cabinet de France, surtout consacré aux espèces animales, en particulier à l’ornithologie. À la mort de Réaumur, Buffon réussit à obtenir ses collections et à les intégrer dans le cabinet du roi.
-Le cabinet de curiosités de Joseph Bonnier de La Mosson (1702-1744), dans l'hôtel du Lude, au 58 rue Saint-Dominique, à Paris, était exemplaire en ce qu’il était très structuré. Les différentes parties du cabinet s'intéressaient chacune à un domaine particulier: l'anatomie, la chimie, la pharmacie, les drogues, la mécanique, les mathématiques ou encore les outils propres à différents arts et métiers. Enfin, il comprenait 3 cabinets d'Histoire Naturelle[14]. Par ailleurs, on pouvait y voir un coquillier, meuble servant à ranger et présenter des coquilles (de mollusques). Une partie des armoires se trouve aujourd’hui à la médiathèque du Museum[15].
+Le cabinet de curiosités de Joseph Bonnier de La Mosson (1702-1744), dans l'hôtel du Lude, au 58 rue Saint-Dominique, à Paris, était exemplaire en ce qu’il était très structuré. Les différentes parties du cabinet s'intéressaient chacune à un domaine particulier: l'anatomie, la chimie, la pharmacie, les drogues, la mécanique, les mathématiques ou encore les outils propres à différents arts et métiers. Enfin, il comprenait 3 cabinets d'Histoire Naturelle. Par ailleurs, on pouvait y voir un coquillier, meuble servant à ranger et présenter des coquilles (de mollusques). Une partie des armoires se trouve aujourd’hui à la médiathèque du Museum.
 Vers 1760, James Darcy Lever (1728-1788) commença à amasser une immense collection. Il acheta le cabinet de Johann Reinhold Forster (1729-1798) quand celui-ci, privé du soutien du gouvernement, fut ruiné. En 1774, il ouvrit musée à Londres, mais fut à son tour ruiné et ses collections dispersées dans l’indifférence du gouvernement. À la même époque, Joseph Banks (1743-1820) développait aux Jardins botaniques royaux de Kew la culture des plantes indigènes et exotiques utiles au progrès économique.
 Le médecin et naturaliste alsacien Jean Hermann (1738-1800) créa à partir de 1768, à Strasbourg, un cabinet d'histoire naturelle riche d'un grand nombre d’animaux naturalisés et de plantes séchées. Ses collections et sa bibliothèque, riche de 20 000 volumes, sont à l'origine du Musée de minéralogie de Strasbourg et du Musée zoologique de la ville de Strasbourg, où son cabinet d'histoire naturelle a été recréé. Hermann dirigeait en outre le jardin botanique.
-La curiosité est en essor constant durant le XVIIe siècle, et son commerce atteint son apogée dans la deuxième moitié du XVIIIe siècle, 42 catalogues de cabinets étant imprimés par an. Néanmoins, la curiosité est étouffée par la révolution française. En effet, elle existait principalement à travers de riches cabinets, dont les propriétaires ont fui la France. La curiosité s'était déjà replié autour de Port-Royal, quartier apprécié des brocanteurs, mais ne subsiste désormais qu'en marge de la capitale, chez les grandes fortunes de la Restauration. Elle ne reprendra son essor qu'au milieu du siècle suivant, mais avec beaucoup moins d'aplomb[16].
+La curiosité est en essor constant durant le XVIIe siècle, et son commerce atteint son apogée dans la deuxième moitié du XVIIIe siècle, 42 catalogues de cabinets étant imprimés par an. Néanmoins, la curiosité est étouffée par la révolution française. En effet, elle existait principalement à travers de riches cabinets, dont les propriétaires ont fui la France. La curiosité s'était déjà replié autour de Port-Royal, quartier apprécié des brocanteurs, mais ne subsiste désormais qu'en marge de la capitale, chez les grandes fortunes de la Restauration. Elle ne reprendra son essor qu'au milieu du siècle suivant, mais avec beaucoup moins d'aplomb.
 Le premier museum de Cherbourg, ouvert en 1832 et devenu plus tard Muséum Emmanuel-Liais, fut conçu autour des collections du cabinet d’un savant local, enrichies d’objets légués par les grandes familles locales, et des collections de savants normands ou ayant des attaches normandes réunis au sein de la Société nationale des sciences naturelles et mathématiques de Cherbourg tels que Louis Corbière et Emmanuel Liais. Liais avait dans sa propriété un jardin botanique (fondé en 1878).
-Aux XXe et XXIe siècles, un intérêt nouveau se manifeste pour les cabinets de curiosités, de la part d’artistes comme André Breton[17] ou Christophe Conan (Nature vivante)[18]: « Animaux des abysses » est exposé au musée de Vernon. Des expositions sont organisées dans l’ancien cabinet du château de La Roche-Guyon et dans les salles du château d’Oiron.
-Évolution
-Les cabinets de curiosités apparus au XVIe siècle évoluent pour devenir, au XVIIIe siècle, des « cabinets d’histoire naturelle » ; ces derniers sont considérés comme les ancêtres des musées d'histoire naturelle modernes[19]. Le cabinet de curiosités présente dans le désordre des pièces des règnes animal, végétal et minéral ; l'objectif est de montrer la diversité du monde. Dans le cabinet d'histoire naturelle, en revanche, les collections sont structurées, et suivent une classification scientifique ; elles se spécialisent aussi ; apparaissent ainsi par exemple des collections de fossiles, d'où sont exclus les spécimens d'espèces de la période historique[19]. Cette évolution est en rapport avec les progrès de la science. Les notions de genre et d'espèce sont mieux définies par Carl von Linné, l'histoire de la Terre et des fossiles fait l'objet de tentatives d'explication rationnelles[19].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cabinet_de_curiosit%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Aux XXe et XXIe siècles, un intérêt nouveau se manifeste pour les cabinets de curiosités, de la part d’artistes comme André Breton ou Christophe Conan (Nature vivante): « Animaux des abysses » est exposé au musée de Vernon. Des expositions sont organisées dans l’ancien cabinet du château de La Roche-Guyon et dans les salles du château d’Oiron.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cabinets de curiosités apparus au XVIe siècle évoluent pour devenir, au XVIIIe siècle, des « cabinets d’histoire naturelle » ; ces derniers sont considérés comme les ancêtres des musées d'histoire naturelle modernes. Le cabinet de curiosités présente dans le désordre des pièces des règnes animal, végétal et minéral ; l'objectif est de montrer la diversité du monde. Dans le cabinet d'histoire naturelle, en revanche, les collections sont structurées, et suivent une classification scientifique ; elles se spécialisent aussi ; apparaissent ainsi par exemple des collections de fossiles, d'où sont exclus les spécimens d'espèces de la période historique. Cette évolution est en rapport avec les progrès de la science. Les notions de genre et d'espèce sont mieux définies par Carl von Linné, l'histoire de la Terre et des fossiles fait l'objet de tentatives d'explication rationnelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Critique des cabinets de curiosités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'un des premiers critiques fut l’épigrammiste néerlandais Roemer Visscher qui nota au-dessus d'une gravure (la quatrième de l'ouvrage) représentant des coquilles qu'« Il est étrange de voir pour quelles choses un fou dépense son argent[20]. »
-Descartes
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des premiers critiques fut l’épigrammiste néerlandais Roemer Visscher qui nota au-dessus d'une gravure (la quatrième de l'ouvrage) représentant des coquilles qu'« Il est étrange de voir pour quelles choses un fou dépense son argent. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Descartes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans Règles pour la direction de l’esprit (1628), parlant des écoles, dont l’enseignement est mal conçu, Descartes énonce la règle IV :
 « Les hommes sont poussés par une curiosité si aveugle, que souvent ils dirigent leur esprit dans des voies inconnues, sans aucun espoir fondé, mais seulement pour essayer si ce qu’ils cherchent n’y serait pas ; à peu près comme celui qui, dans l’ardeur insensée de découvrir un trésor, parcourrait perpétuellement tous les lieux pour voir si quelque voyageur n’y en a pas laissé un… »
  Il en déduit la nécessité d’une méthode.
-La Bruyère
-Jean de La Bruyère consacre le chapitre ‘De la mode’ dans ses Caractères (1688) aux amateurs de curiosités (amateurs de fleurs qui se pâment devant une tulipe, propriétaires de cabinets de curiosités : il présente la curiosité comme une mode et une passion dévorante, ridicule et vaine, et conclut : « Que deviendront ces modes quand le temps même aura disparu ? La vertu seule, si peu à la mode, va au-delà des temps. »
-Furetière
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>La Bruyère</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean de La Bruyère consacre le chapitre ‘De la mode’ dans ses Caractères (1688) aux amateurs de curiosités (amateurs de fleurs qui se pâment devant une tulipe, propriétaires de cabinets de curiosités : il présente la curiosité comme une mode et une passion dévorante, ridicule et vaine, et conclut : « Que deviendront ces modes quand le temps même aura disparu ? La vertu seule, si peu à la mode, va au-delà des temps. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Furetière</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans son Dictionnaire Universel de 1690, Antoine Furetière oppose les curieux et les savants : 
 « CURIEUX… se dit en bonne part de celui qui a le désir d’apprendre, de voir les bonnes choses, les merveilles de l’art et de la nature. … ‘Curieux’, se dit aussi de celui qui amasse des choses rares, singulières, excellentes, ou qu'il regarde comme telles ; car tous les curieux ne sont pas connaisseurs… »
 Il laisse entendre que les curieux pratiquent un amalgame entre sciences réelles et fausses sciences : 
 « On appelle les Sciences curieuses celles qui sont connues de peu de personnes, qui ont des secrets particuliers, comme la Chimie, une partie de l’optique qui fait voir des choses extraordinaires avec des miroirs et des lunettes ; &amp; plusieurs vaines sciences où l’on pense voir l’avenir, comme l’Astrologie Judiciaire, la Chiromance, la Géomance, et même on y joint la Cabale, la Magie, &amp;c. »
-Buffon
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Buffon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Dans L’Histoire naturelle, premier discours, ‘Théorie de la terre’, 1749, Buffon souligne l’intérêt qu’il y a à réunir des collections d’objets, mais souligne la nécessité d’échapper à l’étonnement et de s’élever du particulier au général : 
 « … il y a une espèce de force de génie &amp; de courage d’esprit à pouvoir envisager, sans s’étonner, la Nature dans la multitude innombrable de ses productions, &amp; à se croire capable de les comprendre &amp; de les comparer ; il y a une espèce de goût à les aimer, plus grand que le goût qui n’a pour but que des objets particuliers ; &amp; l’on peut dire que l’amour de l’étude de la Nature suppose dans l’esprit deux qualités qui paroissent opposées, les grandes vûes d’un génie ardent qui embrasse tout d’un coup d’œil, &amp; les petites attentions d’un instinct laborieux qui ne s’attache qu’à un seul point. »
 « Le premier obstacle qui se présente dans l’étude de l’Histoire Naturelle, vient de cette grande multitude d’objets ; mais la variété de ces mêmes objets, &amp; la difficulté de rassembler les productions des différens climats, forment un autre obstacle à l’avancement de nos connoissances, qui paroît invincible, &amp; qu’en effet le travail seul ne peut surmonter ; ce n’est qu’à force de temps, de soins, de dépenses, &amp; souvent par des hasards heureux, qu’on peut se procurer des individus bien conservez de chaque espèce d’animaux, de plantes ou de minéraux, &amp; former une collection bien rangée de tous les ouvrages de la Nature. (p. 4-5) »
@@ -624,9 +855,44 @@
 Il se moque ainsi de telle méthode imposant d'« aller le microscope à la main, pour reconnoître un arbre ou une plante ; la grandeur, la figure, le port extérieur, les feuilles, toutes les parties apparentes ne servent plus à rien, il n’y a que les étamines, &amp; si l’on ne peut pas voir les étamines, on ne sçait rien, on n’a rien vû. Ce grand arbre que vous apercevez, n’est peut-être qu’une pimprenelle… » (p. 19)
 Il conclut en soulignant la complémentarité de l’approche méthodique et de la description simple et sans apprêt des objets d’étude : 
 « Il résulte de tout ce que nous venons d’exposer, qu’il y a dans l’étude de l’Histoire Naturelle deux écueils également dangereux, le premier, de n’avoir aucune méthode, &amp; le second, de vouloir tout rapporter à un système particulier. … la plupart de ceux qui, sans aucune étude précédente de l’Histoire Naturelle, veulent avoir des cabinets de ce genre, sont de ces personnes aisées, peu occupées, qui cherchent à s’amuser, &amp; regardent comme un mérite d’être mises au rang des curieux ; ces gens-là commencent par acheter, sans choix, tout ce qui leur frappe les yeux ; ils ont l’air de desirer avec passion les choses qu’on leur dit être rares &amp; extraordinaires, il les estiment au prix qu’ils les ont acquises, ils arrangent le tout avec complaisance, ou l’entassent avec confusion, &amp; finissent bien tôt par se dégoûter : d’autres au contraire, &amp; ce sont les plus sçavans, après s’être remplis la tête de noms, de phrases, de méthodes particulières, viennent à en adopter quelqu’une, ou s’occupent à en faire une nouvelle, &amp; travaillant ainsi toute leur vie sur une même ligne &amp; dans une fausse direction, &amp; voulant tout ramener à leur point de vûe particulier, ils se rétrécissent l’esprit, cessent de voir les objets tels qu’ils sont, &amp; finissent par embarrasser la science &amp; la charger du poids étranger de toutes leurs idées. On ne doit donc pas regarder les méthodes que les Auteurs nous ont données sur l’Histoire Naturelle en général, ou sur quelques-unes de ses parties, comme les fondemens de la science, &amp; on ne doit s’en servir que comme de signes dont on est convenu pour s’entendre. (p. 22-23))… C’est ici le principal but qu’on doive se proposer : on peut se servir d’une méthode déjà faite comme d’une commodité pour étudier, on doit la regarder comme une facilité pour s’entendre ; mais le seul &amp; vrai moyen d’avancer la science, est de travailler à la description &amp; à l’histoire des différentes choses qui en font l’objet. » (p. 24-25) »
-Lamarck
-Le Nouveau dictionnaire d'histoire naturelle[21], appliquée aux arts, à l'agriculture, à l'économie rurale et domestique, à la médecine, etc. Par une société de naturalistes et d'agriculteurs, Volume 7, 1817 (deuxième édition) fut publié par Jean-François Deterville[e].
-L’article « conchyliologie » de l’édition de 1817, apparemment confié à Jean-Baptiste Lamarck, est une profonde révision de l'article de la première édition[22], écrit par un autre auteur qui ne faisait aucune référence aux propriétaires de cabinets. Lamarck en parle assez longuement, mêlant louanges et, surtout, réprobation. Il note que c’est grâce aux collectionneurs que les scientifiques ont pu voir beaucoup de coquilles, et même des spécimens rares :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lamarck</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Nouveau dictionnaire d'histoire naturelle, appliquée aux arts, à l'agriculture, à l'économie rurale et domestique, à la médecine, etc. Par une société de naturalistes et d'agriculteurs, Volume 7, 1817 (deuxième édition) fut publié par Jean-François Deterville[e].
+L’article « conchyliologie » de l’édition de 1817, apparemment confié à Jean-Baptiste Lamarck, est une profonde révision de l'article de la première édition, écrit par un autre auteur qui ne faisait aucune référence aux propriétaires de cabinets. Lamarck en parle assez longuement, mêlant louanges et, surtout, réprobation. Il note que c’est grâce aux collectionneurs que les scientifiques ont pu voir beaucoup de coquilles, et même des spécimens rares :
 « … les coquilles sont devenues un objet de commerce, et un sujet de spéculation pour les négocians voyageurs ; le prix extrêmement élevé par les amateurs, de celles qui sont très-rares, soit par leur espèce, soit dans leur volume et la vivacité de leurs couleurs, y ayant donné lieu. En cela, les naturalistes y ont beaucoup gagné ; car ils en ont eu l'occasion d'en observer un grand nombre, dont, sans cette cause, ils eussent probablement ignoré l'existence. » (p. 414) »
 Toutefois, les cabinets avaient pour objet « l'amusement des personnes oisives » (p. 413) qui « se born[aient] à rassembler et placer avec symétrie dans des armoires, des coquilles choisies d'après leur éclat et leur beauté » (p. 414), et non le progrès de la science : « A la vérité, pendant long-temps, la conchyliologie n'a été qu'un vain objet d'amusement, qu'un sujet d'ostentation et même de luxe ; en sorte que les collections dont elle étoit le but, ne produisoient guère dans l'esprit des propriétaires ou de ceux qui les considéroient, qu'une stérile admiration, soit de la multiplicité et de la singularité des formes des coquilles, soit de la variété presque infinie, et de la vivacité de leurs couleurs. » (p. 413)
 Le contenu des collections était aussi impropre à favoriser la science : le choix des spécimens était guidé par leur esthétique ou leur originalité : 
@@ -636,10 +902,80 @@
 Lamarck note plus bas que cet inconvénient majeur a désormais disparu, et que les collections se font plus scientifiques :
 « Depuis quelques années, les choses ont beaucoup changé à cet égard. On s'est enfin aperçu que l'étude bien entendue des coquilles pouvoit avoir un but utile, et devoit contribuer réellement aux progrès de l'histoire naturelle ; on a senti qu'une collection suivie de ces objets, dans un état convenable, pouvoit favoriser singulièrement cette étude. Dès lors, (…) on a entrepris de former des suites complètes de tout ce que la nature nous offre en ce genre, estimant également les objets, indépendamment de leur taille et des couleurs plus ou moins brillantes dont ils peuvent être ornés. » (p. 414) »
 Les collections des amateurs de curiosités ont donc, malgré leur défauts, été utiles à la science, et été modifiées par les exigences scientifiques.
-Critiques au XXe siècle
-On peut mentionner notamment Michel Foucault dans Les Mots et les Choses, 1966 ; Krzysztof Pomian, Collectionneurs, amateurs et curieux. Paris-Venise, XVIe – XVIIIe siècle, Gallimard, Paris 1987 ; et Antoine Schnapper : compte-rendu par Olivier Bonfait dans « XVIIe siècle : bulletin de la Société d'étude du XVIIe siècle », octobre 1989 (sur Gallica).
-Représentations de cabinets
-Le musée du Louvre possède un tableau d’Anne Vallayer-Coster, Panaches de mer, lithophytes et coquilles (1769), et plusieurs d'Alexandre Isidore Leroy de Barde, représentant peut-être le cabinet dont il était propriétaire. Frans Francken II a représenté à plusieurs reprises des cabinets de curiosités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Critiques au XXe siècle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut mentionner notamment Michel Foucault dans Les Mots et les Choses, 1966 ; Krzysztof Pomian, Collectionneurs, amateurs et curieux. Paris-Venise, XVIe – XVIIIe siècle, Gallimard, Paris 1987 ; et Antoine Schnapper : compte-rendu par Olivier Bonfait dans « XVIIe siècle : bulletin de la Société d'étude du XVIIe siècle », octobre 1989 (sur Gallica).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cabinet_de_curiosités</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cabinet_de_curiosit%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Critique des cabinets de curiosités</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Représentations de cabinets</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée du Louvre possède un tableau d’Anne Vallayer-Coster, Panaches de mer, lithophytes et coquilles (1769), et plusieurs d'Alexandre Isidore Leroy de Barde, représentant peut-être le cabinet dont il était propriétaire. Frans Francken II a représenté à plusieurs reprises des cabinets de curiosités.
 </t>
         </is>
       </c>
